--- a/Testing/LSTM_ETH_result.xlsx
+++ b/Testing/LSTM_ETH_result.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>26.66333400372617</v>
+        <v>32.28074022588687</v>
       </c>
       <c r="F1" t="n">
-        <v>22.81678670411559</v>
+        <v>27.84062887357341</v>
       </c>
       <c r="G1" t="n">
-        <v>1.720128841716916</v>
+        <v>2.118655724364392</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>29.70557573993595</v>
+        <v>31.88164954186993</v>
       </c>
       <c r="F2" t="n">
-        <v>25.52038370510248</v>
+        <v>27.46823734996785</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9424010351611</v>
+        <v>2.095658115369466</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>38.94125763678895</v>
+        <v>34.38367725038192</v>
       </c>
       <c r="F3" t="n">
-        <v>33.87607608416264</v>
+        <v>29.75572810576745</v>
       </c>
       <c r="G3" t="n">
-        <v>2.616998300629657</v>
+        <v>2.284698641334845</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>24.28253662326555</v>
+        <v>18.15212772354494</v>
       </c>
       <c r="F4" t="n">
-        <v>21.35320544961279</v>
+        <v>13.4533597386435</v>
       </c>
       <c r="G4" t="n">
-        <v>1.518091113585118</v>
+        <v>0.933836963686932</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>20.87109680977355</v>
+        <v>21.12823122701607</v>
       </c>
       <c r="F5" t="n">
-        <v>17.24329614421978</v>
+        <v>17.55571001415359</v>
       </c>
       <c r="G5" t="n">
-        <v>1.260270625669782</v>
+        <v>1.282077880631977</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>19.87052771210348</v>
+        <v>20.29787809372531</v>
       </c>
       <c r="F6" t="n">
-        <v>16.27840496902391</v>
+        <v>16.68370513647599</v>
       </c>
       <c r="G6" t="n">
-        <v>1.190795038982168</v>
+        <v>1.218135592954001</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>21.71598523428441</v>
+        <v>15.98661673588873</v>
       </c>
       <c r="F7" t="n">
-        <v>18.53064399840902</v>
+        <v>11.02302479171025</v>
       </c>
       <c r="G7" t="n">
-        <v>1.316006240143733</v>
+        <v>0.7512144885048506</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>15.84489845270009</v>
+        <v>16.93410594080901</v>
       </c>
       <c r="F8" t="n">
-        <v>11.29462920362781</v>
+        <v>12.48422455802614</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7939789963087123</v>
+        <v>0.8739217508262198</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>16.51441597713709</v>
+        <v>15.93485248963505</v>
       </c>
       <c r="F9" t="n">
-        <v>12.32721711817439</v>
+        <v>10.95320051694326</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8514560069729206</v>
+        <v>0.7500023204733112</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>49.61556837751115</v>
+        <v>48.79985551585974</v>
       </c>
       <c r="F10" t="n">
-        <v>45.42449969417943</v>
+        <v>43.71414706228352</v>
       </c>
       <c r="G10" t="n">
-        <v>3.480927280322911</v>
+        <v>3.383934722612455</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>50.03039534373949</v>
+        <v>51.17900140102689</v>
       </c>
       <c r="F11" t="n">
-        <v>45.81340863371324</v>
+        <v>46.16238542755903</v>
       </c>
       <c r="G11" t="n">
-        <v>3.511211531813952</v>
+        <v>3.566347156531567</v>
       </c>
     </row>
     <row r="12">
@@ -712,13 +712,13 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>53.32996844632675</v>
+        <v>38.82852787991773</v>
       </c>
       <c r="F12" t="n">
-        <v>49.41870884788156</v>
+        <v>35.68157559723434</v>
       </c>
       <c r="G12" t="n">
-        <v>3.770915377666801</v>
+        <v>2.682452606748879</v>
       </c>
     </row>
     <row r="13">
@@ -737,13 +737,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>42.98649296007194</v>
+        <v>106.6943049200783</v>
       </c>
       <c r="F13" t="n">
-        <v>38.84597117545862</v>
+        <v>100.1493212265101</v>
       </c>
       <c r="G13" t="n">
-        <v>2.992987755492581</v>
+        <v>7.67822374536126</v>
       </c>
     </row>
     <row r="14">
@@ -762,13 +762,13 @@
         <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>43.24006443766527</v>
+        <v>42.19906272848711</v>
       </c>
       <c r="F14" t="n">
-        <v>39.45852939865898</v>
+        <v>37.50061217631534</v>
       </c>
       <c r="G14" t="n">
-        <v>3.025572237188089</v>
+        <v>2.910108566283272</v>
       </c>
     </row>
     <row r="15">
@@ -787,13 +787,13 @@
         <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>46.14590313198751</v>
+        <v>41.96314739930055</v>
       </c>
       <c r="F15" t="n">
-        <v>42.2440218600843</v>
+        <v>37.13297856370627</v>
       </c>
       <c r="G15" t="n">
-        <v>3.239658926734837</v>
+        <v>2.885571707735323</v>
       </c>
     </row>
     <row r="16">
@@ -812,13 +812,13 @@
         <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>106.6327844497081</v>
+        <v>103.7636093351819</v>
       </c>
       <c r="F16" t="n">
-        <v>103.3151428342264</v>
+        <v>99.28400034263704</v>
       </c>
       <c r="G16" t="n">
-        <v>7.768913984216207</v>
+        <v>7.520611657442612</v>
       </c>
     </row>
     <row r="17">
@@ -837,13 +837,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>37.20396494970655</v>
+        <v>98.62849450666432</v>
       </c>
       <c r="F17" t="n">
-        <v>33.66014430422977</v>
+        <v>93.68304493214468</v>
       </c>
       <c r="G17" t="n">
-        <v>2.578469307998734</v>
+        <v>7.127197717804969</v>
       </c>
     </row>
     <row r="18">
@@ -862,13 +862,13 @@
         <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>57.51982664040442</v>
+        <v>62.5410735682137</v>
       </c>
       <c r="F18" t="n">
-        <v>52.47922174113326</v>
+        <v>56.16142509410874</v>
       </c>
       <c r="G18" t="n">
-        <v>4.057419516941404</v>
+        <v>4.376078974515887</v>
       </c>
     </row>
     <row r="19">
@@ -887,13 +887,13 @@
         <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>47.99888466039516</v>
+        <v>51.61860029186825</v>
       </c>
       <c r="F19" t="n">
-        <v>42.69921886022692</v>
+        <v>45.85119155189432</v>
       </c>
       <c r="G19" t="n">
-        <v>3.302661768307495</v>
+        <v>3.556360177700631</v>
       </c>
     </row>
     <row r="20">
@@ -912,13 +912,13 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>39.12729289214497</v>
+        <v>49.10014620586816</v>
       </c>
       <c r="F20" t="n">
-        <v>34.0146860656446</v>
+        <v>43.01309969433423</v>
       </c>
       <c r="G20" t="n">
-        <v>2.632191144882206</v>
+        <v>3.348423885249852</v>
       </c>
     </row>
     <row r="21">
@@ -937,13 +937,13 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>51.74183840160437</v>
+        <v>50.86193764027471</v>
       </c>
       <c r="F21" t="n">
-        <v>47.16665556612501</v>
+        <v>45.27258483863397</v>
       </c>
       <c r="G21" t="n">
-        <v>3.61672262418502</v>
+        <v>3.506469532412635</v>
       </c>
     </row>
     <row r="22">
@@ -962,13 +962,13 @@
         <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>41.36941654655298</v>
+        <v>37.96342197117425</v>
       </c>
       <c r="F22" t="n">
-        <v>36.35942336142014</v>
+        <v>32.51277524031284</v>
       </c>
       <c r="G22" t="n">
-        <v>2.821677309580993</v>
+        <v>2.537825505963614</v>
       </c>
     </row>
     <row r="23">
@@ -987,13 +987,13 @@
         <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>31.68930233870293</v>
+        <v>41.88818076670611</v>
       </c>
       <c r="F23" t="n">
-        <v>26.96038400341838</v>
+        <v>35.74269073264603</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08854793361646</v>
+        <v>2.803071776267643</v>
       </c>
     </row>
     <row r="24">
@@ -1012,13 +1012,13 @@
         <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>28.88032276867416</v>
+        <v>24.71268601181375</v>
       </c>
       <c r="F24" t="n">
-        <v>24.41341487114245</v>
+        <v>19.97849279481724</v>
       </c>
       <c r="G24" t="n">
-        <v>1.881673977491</v>
+        <v>1.537256717096753</v>
       </c>
     </row>
     <row r="25">
@@ -1037,13 +1037,13 @@
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>17.5077332048766</v>
+        <v>31.61844184864182</v>
       </c>
       <c r="F25" t="n">
-        <v>12.86526993181887</v>
+        <v>26.46706297054247</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9701387070080099</v>
+        <v>2.06258034024837</v>
       </c>
     </row>
     <row r="26">
@@ -1062,13 +1062,13 @@
         <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>34.7383398947237</v>
+        <v>46.02069333839977</v>
       </c>
       <c r="F26" t="n">
-        <v>30.12528299205238</v>
+        <v>41.51137560171574</v>
       </c>
       <c r="G26" t="n">
-        <v>2.341449590395527</v>
+        <v>3.199793925364737</v>
       </c>
     </row>
     <row r="27">
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>23.56868568727281</v>
+        <v>29.56327098110572</v>
       </c>
       <c r="F27" t="n">
-        <v>19.51341552312227</v>
+        <v>24.80361913829089</v>
       </c>
       <c r="G27" t="n">
-        <v>1.495778049782761</v>
+        <v>1.930556147766743</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/LSTM_ETH_result.xlsx
+++ b/Testing/LSTM_ETH_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C1" t="n">
         <v>25</v>
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>32.28074022588687</v>
+        <v>18.69762382459766</v>
       </c>
       <c r="F1" t="n">
-        <v>27.84062887357341</v>
+        <v>14.66414857287439</v>
       </c>
       <c r="G1" t="n">
-        <v>2.118655724364392</v>
+        <v>1.055590017863675</v>
       </c>
     </row>
     <row r="2">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>25</v>
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>31.88164954186993</v>
+        <v>28.26174043986157</v>
       </c>
       <c r="F2" t="n">
-        <v>27.46823734996785</v>
+        <v>24.73408636229542</v>
       </c>
       <c r="G2" t="n">
-        <v>2.095658115369466</v>
+        <v>1.831887643544411</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>25</v>
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>34.38367725038192</v>
+        <v>20.21333062962665</v>
       </c>
       <c r="F3" t="n">
-        <v>29.75572810576745</v>
+        <v>16.00045701444493</v>
       </c>
       <c r="G3" t="n">
-        <v>2.284698641334845</v>
+        <v>1.154182997276074</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>50</v>
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>18.15212772354494</v>
+        <v>14.89792101508787</v>
       </c>
       <c r="F4" t="n">
-        <v>13.4533597386435</v>
+        <v>10.44712835915096</v>
       </c>
       <c r="G4" t="n">
-        <v>0.933836963686932</v>
+        <v>0.7549135738154362</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
         <v>50</v>
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>21.12823122701607</v>
+        <v>14.2957774836497</v>
       </c>
       <c r="F5" t="n">
-        <v>17.55571001415359</v>
+        <v>9.525291626676799</v>
       </c>
       <c r="G5" t="n">
-        <v>1.282077880631977</v>
+        <v>0.6786845229016056</v>
       </c>
     </row>
     <row r="6">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>50</v>
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>20.29787809372531</v>
+        <v>14.00774773036574</v>
       </c>
       <c r="F6" t="n">
-        <v>16.68370513647599</v>
+        <v>9.206973911963765</v>
       </c>
       <c r="G6" t="n">
-        <v>1.218135592954001</v>
+        <v>0.6608272244306592</v>
       </c>
     </row>
     <row r="7">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>15.98661673588873</v>
+        <v>18.62445084902053</v>
       </c>
       <c r="F7" t="n">
-        <v>11.02302479171025</v>
+        <v>15.246355502827</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7512144885048506</v>
+        <v>1.135521882965889</v>
       </c>
     </row>
     <row r="8">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>100</v>
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>16.93410594080901</v>
+        <v>15.35823821370428</v>
       </c>
       <c r="F8" t="n">
-        <v>12.48422455802614</v>
+        <v>11.37850514282464</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8739217508262198</v>
+        <v>0.8262581093833731</v>
       </c>
     </row>
     <row r="9">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>100</v>
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>15.93485248963505</v>
+        <v>13.58786665989587</v>
       </c>
       <c r="F9" t="n">
-        <v>10.95320051694326</v>
+        <v>8.791844976304857</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7500023204733112</v>
+        <v>0.628355900017038</v>
       </c>
     </row>
     <row r="10">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
         <v>25</v>
@@ -662,13 +662,13 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>48.79985551585974</v>
+        <v>32.28074022588687</v>
       </c>
       <c r="F10" t="n">
-        <v>43.71414706228352</v>
+        <v>27.84062887357341</v>
       </c>
       <c r="G10" t="n">
-        <v>3.383934722612455</v>
+        <v>2.118655724364392</v>
       </c>
     </row>
     <row r="11">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
         <v>25</v>
@@ -687,13 +687,13 @@
         <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>51.17900140102689</v>
+        <v>31.88164954186993</v>
       </c>
       <c r="F11" t="n">
-        <v>46.16238542755903</v>
+        <v>27.46823734996785</v>
       </c>
       <c r="G11" t="n">
-        <v>3.566347156531567</v>
+        <v>2.095658115369466</v>
       </c>
     </row>
     <row r="12">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
         <v>25</v>
@@ -712,13 +712,13 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>38.82852787991773</v>
+        <v>34.38367725038192</v>
       </c>
       <c r="F12" t="n">
-        <v>35.68157559723434</v>
+        <v>29.75572810576745</v>
       </c>
       <c r="G12" t="n">
-        <v>2.682452606748879</v>
+        <v>2.284698641334845</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
         <v>50</v>
@@ -737,13 +737,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>106.6943049200783</v>
+        <v>18.15212772354494</v>
       </c>
       <c r="F13" t="n">
-        <v>100.1493212265101</v>
+        <v>13.4533597386435</v>
       </c>
       <c r="G13" t="n">
-        <v>7.67822374536126</v>
+        <v>0.933836963686932</v>
       </c>
     </row>
     <row r="14">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
         <v>50</v>
@@ -762,13 +762,13 @@
         <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>42.19906272848711</v>
+        <v>21.12823122701607</v>
       </c>
       <c r="F14" t="n">
-        <v>37.50061217631534</v>
+        <v>17.55571001415359</v>
       </c>
       <c r="G14" t="n">
-        <v>2.910108566283272</v>
+        <v>1.282077880631977</v>
       </c>
     </row>
     <row r="15">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
         <v>50</v>
@@ -787,13 +787,13 @@
         <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>41.96314739930055</v>
+        <v>20.29787809372531</v>
       </c>
       <c r="F15" t="n">
-        <v>37.13297856370627</v>
+        <v>16.68370513647599</v>
       </c>
       <c r="G15" t="n">
-        <v>2.885571707735323</v>
+        <v>1.218135592954001</v>
       </c>
     </row>
     <row r="16">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
@@ -812,13 +812,13 @@
         <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>103.7636093351819</v>
+        <v>15.98661673588873</v>
       </c>
       <c r="F16" t="n">
-        <v>99.28400034263704</v>
+        <v>11.02302479171025</v>
       </c>
       <c r="G16" t="n">
-        <v>7.520611657442612</v>
+        <v>0.7512144885048506</v>
       </c>
     </row>
     <row r="17">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
         <v>100</v>
@@ -837,13 +837,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>98.62849450666432</v>
+        <v>16.93410594080901</v>
       </c>
       <c r="F17" t="n">
-        <v>93.68304493214468</v>
+        <v>12.48422455802614</v>
       </c>
       <c r="G17" t="n">
-        <v>7.127197717804969</v>
+        <v>0.8739217508262198</v>
       </c>
     </row>
     <row r="18">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
         <v>100</v>
@@ -862,13 +862,13 @@
         <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>62.5410735682137</v>
+        <v>15.93485248963505</v>
       </c>
       <c r="F18" t="n">
-        <v>56.16142509410874</v>
+        <v>10.95320051694326</v>
       </c>
       <c r="G18" t="n">
-        <v>4.376078974515887</v>
+        <v>0.7500023204733112</v>
       </c>
     </row>
     <row r="19">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C19" t="n">
         <v>25</v>
@@ -887,13 +887,13 @@
         <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>51.61860029186825</v>
+        <v>48.79985551585974</v>
       </c>
       <c r="F19" t="n">
-        <v>45.85119155189432</v>
+        <v>43.71414706228352</v>
       </c>
       <c r="G19" t="n">
-        <v>3.556360177700631</v>
+        <v>3.383934722612455</v>
       </c>
     </row>
     <row r="20">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C20" t="n">
         <v>25</v>
@@ -912,13 +912,13 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>49.10014620586816</v>
+        <v>51.17900140102689</v>
       </c>
       <c r="F20" t="n">
-        <v>43.01309969433423</v>
+        <v>46.16238542755903</v>
       </c>
       <c r="G20" t="n">
-        <v>3.348423885249852</v>
+        <v>3.566347156531567</v>
       </c>
     </row>
     <row r="21">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C21" t="n">
         <v>25</v>
@@ -937,13 +937,13 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>50.86193764027471</v>
+        <v>38.82852787991773</v>
       </c>
       <c r="F21" t="n">
-        <v>45.27258483863397</v>
+        <v>35.68157559723434</v>
       </c>
       <c r="G21" t="n">
-        <v>3.506469532412635</v>
+        <v>2.682452606748879</v>
       </c>
     </row>
     <row r="22">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C22" t="n">
         <v>50</v>
@@ -962,13 +962,13 @@
         <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>37.96342197117425</v>
+        <v>106.6943049200783</v>
       </c>
       <c r="F22" t="n">
-        <v>32.51277524031284</v>
+        <v>100.1493212265101</v>
       </c>
       <c r="G22" t="n">
-        <v>2.537825505963614</v>
+        <v>7.67822374536126</v>
       </c>
     </row>
     <row r="23">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C23" t="n">
         <v>50</v>
@@ -987,13 +987,13 @@
         <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>41.88818076670611</v>
+        <v>42.19906272848711</v>
       </c>
       <c r="F23" t="n">
-        <v>35.74269073264603</v>
+        <v>37.50061217631534</v>
       </c>
       <c r="G23" t="n">
-        <v>2.803071776267643</v>
+        <v>2.910108566283272</v>
       </c>
     </row>
     <row r="24">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C24" t="n">
         <v>50</v>
@@ -1012,13 +1012,13 @@
         <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>24.71268601181375</v>
+        <v>41.96314739930055</v>
       </c>
       <c r="F24" t="n">
-        <v>19.97849279481724</v>
+        <v>37.13297856370627</v>
       </c>
       <c r="G24" t="n">
-        <v>1.537256717096753</v>
+        <v>2.885571707735323</v>
       </c>
     </row>
     <row r="25">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
@@ -1037,13 +1037,13 @@
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61844184864182</v>
+        <v>103.7636093351819</v>
       </c>
       <c r="F25" t="n">
-        <v>26.46706297054247</v>
+        <v>99.28400034263704</v>
       </c>
       <c r="G25" t="n">
-        <v>2.06258034024837</v>
+        <v>7.520611657442612</v>
       </c>
     </row>
     <row r="26">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
@@ -1062,13 +1062,13 @@
         <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>46.02069333839977</v>
+        <v>98.62849450666432</v>
       </c>
       <c r="F26" t="n">
-        <v>41.51137560171574</v>
+        <v>93.68304493214468</v>
       </c>
       <c r="G26" t="n">
-        <v>3.199793925364737</v>
+        <v>7.127197717804969</v>
       </c>
     </row>
     <row r="27">
@@ -1078,21 +1078,246 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>64</v>
+      </c>
+      <c r="C27" t="n">
+        <v>100</v>
+      </c>
+      <c r="D27" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" t="n">
+        <v>62.5410735682137</v>
+      </c>
+      <c r="F27" t="n">
+        <v>56.16142509410874</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.376078974515887</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>128</v>
       </c>
-      <c r="C27" t="n">
-        <v>100</v>
-      </c>
-      <c r="D27" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="n">
+        <v>51.61860029186825</v>
+      </c>
+      <c r="F28" t="n">
+        <v>45.85119155189432</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.556360177700631</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>128</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>60</v>
+      </c>
+      <c r="E29" t="n">
+        <v>49.10014620586816</v>
+      </c>
+      <c r="F29" t="n">
+        <v>43.01309969433423</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.348423885249852</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>128</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>50.86193764027471</v>
+      </c>
+      <c r="F30" t="n">
+        <v>45.27258483863397</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.506469532412635</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>128</v>
+      </c>
+      <c r="C31" t="n">
+        <v>50</v>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="n">
+        <v>37.96342197117425</v>
+      </c>
+      <c r="F31" t="n">
+        <v>32.51277524031284</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.537825505963614</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>128</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="n">
+        <v>60</v>
+      </c>
+      <c r="E32" t="n">
+        <v>41.88818076670611</v>
+      </c>
+      <c r="F32" t="n">
+        <v>35.74269073264603</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.803071776267643</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>128</v>
+      </c>
+      <c r="C33" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" t="n">
+        <v>24.71268601181375</v>
+      </c>
+      <c r="F33" t="n">
+        <v>19.97849279481724</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.537256717096753</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>128</v>
+      </c>
+      <c r="C34" t="n">
+        <v>100</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>31.61844184864182</v>
+      </c>
+      <c r="F34" t="n">
+        <v>26.46706297054247</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.06258034024837</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>128</v>
+      </c>
+      <c r="C35" t="n">
+        <v>100</v>
+      </c>
+      <c r="D35" t="n">
+        <v>60</v>
+      </c>
+      <c r="E35" t="n">
+        <v>46.02069333839977</v>
+      </c>
+      <c r="F35" t="n">
+        <v>41.51137560171574</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.199793925364737</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>128</v>
+      </c>
+      <c r="C36" t="n">
+        <v>100</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
         <v>29.56327098110572</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F36" t="n">
         <v>24.80361913829089</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G36" t="n">
         <v>1.930556147766743</v>
       </c>
     </row>
